--- a/StokKart.xlsx
+++ b/StokKart.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Stok Kodu</t>
   </si>
@@ -59,10 +59,49 @@
     <t>1</t>
   </si>
   <si>
+    <t>432</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>1111-11-11</t>
+    <t>1111-11-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>tipdeneme1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>deneme1</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>2222-02-22 00:00:00.0</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>tipdeneme2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>deneme2</t>
+  </si>
+  <si>
+    <t>33333</t>
+  </si>
+  <si>
+    <t>3333-03-30 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -107,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -173,20 +212,96 @@
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
+      <c r="H2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J2" t="n" s="0">
         <v>32.1</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>321.0</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>15</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1.12</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>2.2</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
